--- a/biology/Botanique/Lippia/Lippia.xlsx
+++ b/biology/Botanique/Lippia/Lippia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lippia est un genre de plantes à fleurs de la famille des verveines (Verbenaceae). Il a été nommé d'après Augustin Lippi, (1678 - 1701), un naturaliste et botaniste français, tué en Abyssinie. Le genre comprend environ 200 espèces tropicales d'arbustes répartis partout dans le monde. Ces plantes sont parfumées en raison de leur teneur en huiles essentielles, dont la composition varie selon les espèces, pouvant comprendre de l'estragol, du carvacrol, du linalol, ou du limonène. Les feuilles de certaines espèces, comme les Lippia graveolens, peuvent être utilisées comme condiment de façon similaire à l'origan[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lippia est un genre de plantes à fleurs de la famille des verveines (Verbenaceae). Il a été nommé d'après Augustin Lippi, (1678 - 1701), un naturaliste et botaniste français, tué en Abyssinie. Le genre comprend environ 200 espèces tropicales d'arbustes répartis partout dans le monde. Ces plantes sont parfumées en raison de leur teneur en huiles essentielles, dont la composition varie selon les espèces, pouvant comprendre de l'estragol, du carvacrol, du linalol, ou du limonène. Les feuilles de certaines espèces, comme les Lippia graveolens, peuvent être utilisées comme condiment de façon similaire à l'origan.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lippia adoensis (Hochst. ex Walp.) – Koseret (Éthiopie)
-Lippia alba (Mill.) N. E. Br. ex Britton &amp; P. Wilson – Mélisse de calme[3], Bushy Lippia, White Lippia (Texas, Mexique, Caraïbes, Amérique Centrale et Amérique du Sud)
+Lippia alba (Mill.) N. E. Br. ex Britton &amp; P. Wilson – Mélisse de calme, Bushy Lippia, White Lippia (Texas, Mexique, Caraïbes, Amérique Centrale et Amérique du Sud)
 Lippia carterae (Moldenke) G. L. Nesom – Licorice Verbena (Basse-Californie, Mexique)
 Lippia durangensis Moldenke
 Lippia graveolens Kunth – Mexican Oregano, Scented Lippia, Scented Matgrass (Sud-Ouest des États-Unis, Mexique, Amérique Centrale et Amérique du Sud jusqu'au Nicaragua)
@@ -528,10 +542,44 @@
 Lippia rehmannii H. Pearson
 Lippia salicifolia Andersson (Équateur)
 Lippia scaberrima Sond.
-Lippia sidoides Cham.[4],[5]
-Lippia thymoides Mart. &amp; Schauer – Thym-pays (Guyane)[3]
-Anciennement incluses dans le genre Lippia
-Aloysia citrodora Palau ( L. citrodora Kunth ou L. triphylla (L'Hér.) Kuntze)
+Lippia sidoides Cham.,
+Lippia thymoides Mart. &amp; Schauer – Thym-pays (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lippia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lippia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sélection d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anciennement incluses dans le genre Lippia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aloysia citrodora Palau ( L. citrodora Kunth ou L. triphylla (L'Hér.) Kuntze)
 Aloysia lycioides Cham. ( L. lycioides (Cham.) Steud.)
 Aloysia scorodonioides (Kunth) Cham. ( L. scorodonioides Kunth ou L. wrightii A. Gray ex Torr.)
 Lantana montevidensis (Spreng.) Briq. ( L. montevidensis Spreng.)
